--- a/Calculs/DataBase_template.xlsx
+++ b/Calculs/DataBase_template.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{38686BAF-CB06-4614-AAC2-EE9B22C0186A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BA1E7C-B8FC-4355-9551-97ED2105A4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
   <si>
     <t>fck</t>
   </si>
@@ -104,6 +117,39 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Travée 2</t>
+  </si>
+  <si>
+    <t>Appui 2</t>
+  </si>
+  <si>
+    <t>Travée 3</t>
+  </si>
+  <si>
+    <t>Appui 3</t>
+  </si>
+  <si>
+    <t>Travée 4</t>
+  </si>
+  <si>
+    <t>Appui 4</t>
+  </si>
+  <si>
+    <t>Travée 5</t>
+  </si>
+  <si>
+    <t>Appui 5</t>
+  </si>
+  <si>
+    <t>Travée 6</t>
+  </si>
+  <si>
+    <t>File A - 2</t>
+  </si>
+  <si>
+    <t>File A - 3</t>
   </si>
 </sst>
 </file>
@@ -593,8 +639,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -970,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054D0C79-7D52-471E-B026-05BF71C3F576}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1068,62 +1115,62 @@
       <c r="E2">
         <v>500</v>
       </c>
-      <c r="F2">
-        <v>220000</v>
+      <c r="F2" s="1">
+        <v>170000</v>
       </c>
       <c r="G2">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H2">
-        <v>1800</v>
+        <v>1445</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L2">
-        <v>1.13E-4</v>
+        <v>5.6539999999999997E-4</v>
       </c>
       <c r="M2">
         <v>0.04</v>
       </c>
       <c r="N2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>1.13E-4</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>9.0600000000000007E-5</v>
+        <v>9.6000000000000002E-5</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>30</v>
+        <v>38.13888</v>
       </c>
       <c r="V2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>80</v>
+        <v>49.92</v>
       </c>
       <c r="X2">
-        <v>60</v>
+        <v>38.13888</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
@@ -1142,62 +1189,1838 @@
       <c r="E3">
         <v>500</v>
       </c>
-      <c r="F3">
-        <v>220000</v>
+      <c r="F3" s="1">
+        <v>170000</v>
       </c>
       <c r="G3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H3">
-        <v>1800</v>
+        <v>1445</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="K3">
         <v>2.2000000000000002</v>
       </c>
       <c r="L3">
-        <v>5.6499999999999996E-4</v>
+        <v>1.1286E-3</v>
       </c>
       <c r="M3">
+        <v>0.1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>6.1578924137931036E-4</v>
+      </c>
+      <c r="P3">
         <v>0.04</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1.13E-4</v>
-      </c>
-      <c r="P3">
-        <v>2.5000000000000001E-2</v>
-      </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>9.0600000000000007E-5</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U3">
+        <v>105.04999999999998</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>137.5</v>
+      </c>
+      <c r="X3">
+        <v>105.04999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
+      <c r="F4" s="1">
+        <v>170000</v>
+      </c>
+      <c r="G4">
+        <v>1300</v>
+      </c>
+      <c r="H4">
+        <v>1445</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.23500000000000001</v>
+      </c>
+      <c r="K4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L4">
+        <v>8.470000000000001E-4</v>
+      </c>
+      <c r="M4">
+        <v>0.04</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>9.6000000000000002E-5</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>40.094720000000002</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>52.480000000000004</v>
+      </c>
+      <c r="X4">
+        <v>40.094720000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
+      <c r="F5" s="1">
+        <v>170000</v>
+      </c>
+      <c r="G5">
+        <v>1300</v>
+      </c>
+      <c r="H5">
+        <v>1445</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.22</v>
+      </c>
+      <c r="K5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L5">
+        <v>1.1286E-3</v>
+      </c>
+      <c r="M5">
+        <v>0.04</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>75.63600000000001</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>99.000000000000014</v>
+      </c>
+      <c r="X5">
+        <v>75.63600000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>500</v>
+      </c>
+      <c r="F6" s="1">
+        <v>170000</v>
+      </c>
+      <c r="G6">
+        <v>1300</v>
+      </c>
+      <c r="H6">
+        <v>1445</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.26</v>
+      </c>
+      <c r="K6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L6">
+        <v>5.6539999999999997E-4</v>
+      </c>
+      <c r="M6">
+        <v>0.04</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1.92E-4</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>39.116799999999998</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>51.2</v>
+      </c>
+      <c r="X6">
+        <v>39.116799999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>500</v>
+      </c>
+      <c r="F7" s="1">
+        <v>170000</v>
+      </c>
+      <c r="G7">
+        <v>1300</v>
+      </c>
+      <c r="H7">
+        <v>1445</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.25</v>
+      </c>
+      <c r="K7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L7">
+        <v>1.1286E-3</v>
+      </c>
+      <c r="M7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>6.1578924137931036E-4</v>
+      </c>
+      <c r="P7">
+        <v>0.04</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>126.06</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>165</v>
+      </c>
+      <c r="X7">
+        <v>126.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>500</v>
+      </c>
+      <c r="F8" s="1">
+        <v>170000</v>
+      </c>
+      <c r="G8">
+        <v>1300</v>
+      </c>
+      <c r="H8">
+        <v>1445</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.23500000000000001</v>
+      </c>
+      <c r="K8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L8">
+        <v>8.470000000000001E-4</v>
+      </c>
+      <c r="M8">
+        <v>0.04</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>2.8800000000000001E-4</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>68.454400000000007</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>89.600000000000009</v>
+      </c>
+      <c r="X8">
+        <v>68.454400000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+      <c r="F9" s="1">
+        <v>170000</v>
+      </c>
+      <c r="G9">
+        <v>1300</v>
+      </c>
+      <c r="H9">
+        <v>1445</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.22</v>
+      </c>
+      <c r="K9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L9">
+        <v>1.3298000000000001E-3</v>
+      </c>
+      <c r="M9">
+        <v>0.04</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1.92E-4</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>92.444000000000003</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>121.00000000000001</v>
+      </c>
+      <c r="X9">
+        <v>92.444000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="V3">
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>500</v>
+      </c>
+      <c r="F10" s="1">
+        <v>170000</v>
+      </c>
+      <c r="G10">
+        <v>1300</v>
+      </c>
+      <c r="H10">
+        <v>1445</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.23500000000000001</v>
+      </c>
+      <c r="K10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L10">
+        <v>2.8160000000000001E-4</v>
+      </c>
+      <c r="M10">
+        <v>0.04</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>9.6000000000000002E-5</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>7.6277759999999999</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>9.984</v>
+      </c>
+      <c r="X10">
+        <v>7.6277759999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>500</v>
+      </c>
+      <c r="F11" s="1">
+        <v>170000</v>
+      </c>
+      <c r="G11">
+        <v>1300</v>
+      </c>
+      <c r="H11">
+        <v>1445</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.25</v>
+      </c>
+      <c r="K11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L11">
+        <v>1.3298000000000001E-3</v>
+      </c>
+      <c r="M11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>25.211999999999996</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>33</v>
+      </c>
+      <c r="X11">
+        <v>25.211999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>500</v>
+      </c>
+      <c r="F12" s="1">
+        <v>170000</v>
+      </c>
+      <c r="G12">
+        <v>1300</v>
+      </c>
+      <c r="H12">
+        <v>1445</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.23500000000000001</v>
+      </c>
+      <c r="K12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L12">
+        <v>2.8160000000000001E-4</v>
+      </c>
+      <c r="M12">
+        <v>0.04</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>8.8012799999999984</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>11.52</v>
+      </c>
+      <c r="X12">
+        <v>8.8012799999999984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>500</v>
+      </c>
+      <c r="F13" s="1">
+        <v>170000</v>
+      </c>
+      <c r="G13">
+        <v>1300</v>
+      </c>
+      <c r="H13">
+        <v>1445</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.22</v>
+      </c>
+      <c r="K13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L13">
+        <v>1.3298000000000001E-3</v>
+      </c>
+      <c r="M13">
+        <v>0.04</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>1.92E-4</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>92.444000000000003</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>121.00000000000001</v>
+      </c>
+      <c r="X13">
+        <v>92.444000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>500</v>
+      </c>
+      <c r="F14" s="1">
+        <v>170000</v>
+      </c>
+      <c r="G14">
+        <v>1300</v>
+      </c>
+      <c r="H14">
+        <v>1445</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.23500000000000001</v>
+      </c>
+      <c r="K14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L14">
+        <v>5.6539999999999997E-4</v>
+      </c>
+      <c r="M14">
+        <v>0.04</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>1.92E-4</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>55.741440000000004</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>72.960000000000008</v>
+      </c>
+      <c r="X14">
+        <v>55.741440000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>500</v>
+      </c>
+      <c r="F15" s="1">
+        <v>170000</v>
+      </c>
+      <c r="G15">
+        <v>1300</v>
+      </c>
+      <c r="H15">
+        <v>1445</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.25</v>
+      </c>
+      <c r="K15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L15">
+        <v>1.89E-3</v>
+      </c>
+      <c r="M15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1.92E-4</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>121.858</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>159.5</v>
+      </c>
+      <c r="X15">
+        <v>121.858</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>500</v>
+      </c>
+      <c r="F16" s="1">
+        <v>170000</v>
+      </c>
+      <c r="G16">
+        <v>1300</v>
+      </c>
+      <c r="H16">
+        <v>1445</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.26</v>
+      </c>
+      <c r="K16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L16">
+        <v>5.6539999999999997E-4</v>
+      </c>
+      <c r="M16">
+        <v>0.04</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>9.6000000000000002E-5</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>44.006399999999999</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>57.6</v>
+      </c>
+      <c r="X16">
+        <v>44.006399999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>500</v>
+      </c>
+      <c r="F17" s="1">
+        <v>170000</v>
+      </c>
+      <c r="G17">
+        <v>1300</v>
+      </c>
+      <c r="H17">
+        <v>1445</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.26</v>
+      </c>
+      <c r="K17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L17">
+        <v>5.6539999999999997E-4</v>
+      </c>
+      <c r="M17">
+        <v>0.04</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>9.6000000000000002E-5</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>36.183039999999998</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>47.36</v>
+      </c>
+      <c r="X17">
+        <v>36.183039999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>500</v>
+      </c>
+      <c r="F18" s="1">
+        <v>170000</v>
+      </c>
+      <c r="G18">
+        <v>1300</v>
+      </c>
+      <c r="H18">
+        <v>1445</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.25</v>
+      </c>
+      <c r="K18">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L18">
+        <v>1.1286E-3</v>
+      </c>
+      <c r="M18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>3.0789462068965518E-4</v>
+      </c>
+      <c r="P18">
+        <v>0.04</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>126.06</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>165</v>
+      </c>
+      <c r="X18">
+        <v>126.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>500</v>
+      </c>
+      <c r="F19" s="1">
+        <v>170000</v>
+      </c>
+      <c r="G19">
+        <v>1300</v>
+      </c>
+      <c r="H19">
+        <v>1445</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.23500000000000001</v>
+      </c>
+      <c r="K19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L19">
+        <v>1.1286E-3</v>
+      </c>
+      <c r="M19">
+        <v>0.04</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1.92E-4</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>73.343999999999994</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>96</v>
+      </c>
+      <c r="X19">
+        <v>73.343999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>500</v>
+      </c>
+      <c r="F20" s="1">
+        <v>170000</v>
+      </c>
+      <c r="G20">
+        <v>1300</v>
+      </c>
+      <c r="H20">
+        <v>1445</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.22</v>
+      </c>
+      <c r="K20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L20">
+        <v>1.0482E-3</v>
+      </c>
+      <c r="M20">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>3.8400000000000001E-4</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>92.444000000000003</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>121.00000000000001</v>
+      </c>
+      <c r="X20">
+        <v>92.444000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="W3">
-        <v>80</v>
-      </c>
-      <c r="X3">
-        <v>60</v>
+      <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>500</v>
+      </c>
+      <c r="F21" s="1">
+        <v>170000</v>
+      </c>
+      <c r="G21">
+        <v>1300</v>
+      </c>
+      <c r="H21">
+        <v>1445</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.23500000000000001</v>
+      </c>
+      <c r="K21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L21">
+        <v>2.8160000000000001E-4</v>
+      </c>
+      <c r="M21">
+        <v>0.04</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>9.6000000000000002E-5</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>2.7381759999999997</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>3.5839999999999996</v>
+      </c>
+      <c r="X21">
+        <v>2.7381759999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>500</v>
+      </c>
+      <c r="F22" s="1">
+        <v>170000</v>
+      </c>
+      <c r="G22">
+        <v>1300</v>
+      </c>
+      <c r="H22">
+        <v>1445</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.25</v>
+      </c>
+      <c r="K22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L22">
+        <v>9.3510000000000012E-4</v>
+      </c>
+      <c r="M22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>3.8400000000000001E-4</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>25.211999999999996</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>33</v>
+      </c>
+      <c r="X22">
+        <v>25.211999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>500</v>
+      </c>
+      <c r="F23" s="1">
+        <v>170000</v>
+      </c>
+      <c r="G23">
+        <v>1300</v>
+      </c>
+      <c r="H23">
+        <v>1445</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.23500000000000001</v>
+      </c>
+      <c r="K23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L23">
+        <v>2.8160000000000001E-4</v>
+      </c>
+      <c r="M23">
+        <v>0.04</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>9.6000000000000002E-5</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>7.4321919999999997</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>9.7279999999999998</v>
+      </c>
+      <c r="X23">
+        <v>7.4321919999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>500</v>
+      </c>
+      <c r="F24" s="1">
+        <v>170000</v>
+      </c>
+      <c r="G24">
+        <v>1300</v>
+      </c>
+      <c r="H24">
+        <v>1445</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0.22</v>
+      </c>
+      <c r="K24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L24">
+        <v>1.3298000000000001E-3</v>
+      </c>
+      <c r="M24">
+        <v>0.1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1.92E-4</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>92.444000000000003</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>121.00000000000001</v>
+      </c>
+      <c r="X24">
+        <v>92.444000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>500</v>
+      </c>
+      <c r="F25" s="1">
+        <v>170000</v>
+      </c>
+      <c r="G25">
+        <v>1300</v>
+      </c>
+      <c r="H25">
+        <v>1445</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0.23500000000000001</v>
+      </c>
+      <c r="K25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L25">
+        <v>8.470000000000001E-4</v>
+      </c>
+      <c r="M25">
+        <v>0.04</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>3.8400000000000001E-4</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>73.343999999999994</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>96</v>
+      </c>
+      <c r="X25">
+        <v>73.343999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>500</v>
+      </c>
+      <c r="F26" s="1">
+        <v>170000</v>
+      </c>
+      <c r="G26">
+        <v>1300</v>
+      </c>
+      <c r="H26">
+        <v>1445</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0.25</v>
+      </c>
+      <c r="K26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L26">
+        <v>1.89E-3</v>
+      </c>
+      <c r="M26">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>1.92E-4</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>121.858</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>159.5</v>
+      </c>
+      <c r="X26">
+        <v>121.858</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27">
+        <v>500</v>
+      </c>
+      <c r="F27" s="1">
+        <v>170000</v>
+      </c>
+      <c r="G27">
+        <v>1300</v>
+      </c>
+      <c r="H27">
+        <v>1445</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0.26</v>
+      </c>
+      <c r="K27">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L27">
+        <v>5.6539999999999997E-4</v>
+      </c>
+      <c r="M27">
+        <v>0.04</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>9.6000000000000002E-5</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>36.183039999999998</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>47.36</v>
+      </c>
+      <c r="X27">
+        <v>36.183039999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Calculs/DataBase_template.xlsx
+++ b/Calculs/DataBase_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BA1E7C-B8FC-4355-9551-97ED2105A4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F8E57B-582A-4FA5-8F0B-748EB916CBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="40">
   <si>
     <t>fck</t>
   </si>
@@ -95,9 +95,6 @@
     <t>m_els_2</t>
   </si>
   <si>
-    <t>m_elu</t>
-  </si>
-  <si>
     <t>m_feu</t>
   </si>
   <si>
@@ -150,6 +147,12 @@
   </si>
   <si>
     <t>File A - 3</t>
+  </si>
+  <si>
+    <t>m_elu_1</t>
+  </si>
+  <si>
+    <t>m_elu_2</t>
   </si>
 </sst>
 </file>
@@ -1017,20 +1020,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054D0C79-7D52-471E-B026-05BF71C3F576}">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1093,24 +1096,27 @@
         <v>19</v>
       </c>
       <c r="W1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
       </c>
       <c r="C2">
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>500</v>
@@ -1161,30 +1167,34 @@
         <v>1</v>
       </c>
       <c r="U2">
-        <v>38.13888</v>
+        <v>29.253119999999999</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>8.8857599999999994</v>
       </c>
       <c r="W2">
         <v>49.92</v>
       </c>
       <c r="X2">
+        <f>U2+V2</f>
         <v>38.13888</v>
       </c>
+      <c r="Y2">
+        <v>38.13888</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>500</v>
@@ -1235,30 +1245,34 @@
         <v>1</v>
       </c>
       <c r="U3">
-        <v>105.04999999999998</v>
+        <v>80.574999999999989</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>24.474999999999998</v>
       </c>
       <c r="W3">
         <v>137.5</v>
       </c>
       <c r="X3">
+        <f t="shared" ref="X3:X27" si="0">U3+V3</f>
         <v>105.04999999999998</v>
       </c>
+      <c r="Y3">
+        <v>105.04999999999998</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>500</v>
@@ -1309,30 +1323,34 @@
         <v>1</v>
       </c>
       <c r="U4">
-        <v>40.094720000000002</v>
+        <v>30.75328</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>9.3414400000000004</v>
       </c>
       <c r="W4">
         <v>52.480000000000004</v>
       </c>
       <c r="X4">
+        <f t="shared" si="0"/>
         <v>40.094720000000002</v>
       </c>
+      <c r="Y4">
+        <v>40.094720000000002</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>500</v>
@@ -1383,30 +1401,34 @@
         <v>1</v>
       </c>
       <c r="U5">
-        <v>75.63600000000001</v>
+        <v>58.014000000000003</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>17.622000000000003</v>
       </c>
       <c r="W5">
         <v>99.000000000000014</v>
       </c>
       <c r="X5">
+        <f t="shared" si="0"/>
         <v>75.63600000000001</v>
       </c>
+      <c r="Y5">
+        <v>75.63600000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>500</v>
@@ -1457,30 +1479,34 @@
         <v>1</v>
       </c>
       <c r="U6">
-        <v>39.116799999999998</v>
+        <v>30.0032</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>9.1135999999999999</v>
       </c>
       <c r="W6">
         <v>51.2</v>
       </c>
       <c r="X6">
+        <f t="shared" si="0"/>
         <v>39.116799999999998</v>
       </c>
+      <c r="Y6">
+        <v>39.116799999999998</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>500</v>
@@ -1531,30 +1557,34 @@
         <v>1</v>
       </c>
       <c r="U7">
-        <v>126.06</v>
+        <v>96.69</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>29.369999999999997</v>
       </c>
       <c r="W7">
         <v>165</v>
       </c>
       <c r="X7">
+        <f t="shared" si="0"/>
         <v>126.06</v>
       </c>
+      <c r="Y7">
+        <v>126.06</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>500</v>
@@ -1605,30 +1635,34 @@
         <v>1</v>
       </c>
       <c r="U8">
-        <v>68.454400000000007</v>
+        <v>52.505600000000001</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>15.9488</v>
       </c>
       <c r="W8">
         <v>89.600000000000009</v>
       </c>
       <c r="X8">
+        <f t="shared" si="0"/>
         <v>68.454400000000007</v>
       </c>
+      <c r="Y8">
+        <v>68.454400000000007</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>500</v>
@@ -1679,30 +1713,34 @@
         <v>1</v>
       </c>
       <c r="U9">
-        <v>92.444000000000003</v>
+        <v>70.906000000000006</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>21.538</v>
       </c>
       <c r="W9">
         <v>121.00000000000001</v>
       </c>
       <c r="X9">
+        <f t="shared" si="0"/>
         <v>92.444000000000003</v>
       </c>
+      <c r="Y9">
+        <v>92.444000000000003</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>500</v>
@@ -1753,30 +1791,34 @@
         <v>1</v>
       </c>
       <c r="U10">
-        <v>7.6277759999999999</v>
+        <v>5.8506239999999998</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1.7771519999999998</v>
       </c>
       <c r="W10">
         <v>9.984</v>
       </c>
       <c r="X10">
+        <f t="shared" si="0"/>
         <v>7.6277759999999999</v>
       </c>
+      <c r="Y10">
+        <v>7.6277759999999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>500</v>
@@ -1827,30 +1869,34 @@
         <v>1</v>
       </c>
       <c r="U11">
-        <v>25.211999999999996</v>
+        <v>19.337999999999997</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>5.8739999999999997</v>
       </c>
       <c r="W11">
         <v>33</v>
       </c>
       <c r="X11">
+        <f t="shared" si="0"/>
         <v>25.211999999999996</v>
       </c>
+      <c r="Y11">
+        <v>25.211999999999996</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -1901,30 +1947,34 @@
         <v>1</v>
       </c>
       <c r="U12">
-        <v>8.8012799999999984</v>
+        <v>6.7507199999999994</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>2.0505599999999999</v>
       </c>
       <c r="W12">
         <v>11.52</v>
       </c>
       <c r="X12">
+        <f t="shared" si="0"/>
         <v>8.8012799999999984</v>
       </c>
+      <c r="Y12">
+        <v>8.8012799999999984</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>500</v>
@@ -1975,30 +2025,34 @@
         <v>1</v>
       </c>
       <c r="U13">
-        <v>92.444000000000003</v>
+        <v>70.906000000000006</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>21.538</v>
       </c>
       <c r="W13">
         <v>121.00000000000001</v>
       </c>
       <c r="X13">
+        <f t="shared" si="0"/>
         <v>92.444000000000003</v>
       </c>
+      <c r="Y13">
+        <v>92.444000000000003</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>500</v>
@@ -2049,30 +2103,34 @@
         <v>1</v>
       </c>
       <c r="U14">
-        <v>55.741440000000004</v>
+        <v>42.754560000000005</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>12.986880000000001</v>
       </c>
       <c r="W14">
         <v>72.960000000000008</v>
       </c>
       <c r="X14">
+        <f t="shared" si="0"/>
         <v>55.741440000000004</v>
       </c>
+      <c r="Y14">
+        <v>55.741440000000004</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>500</v>
@@ -2123,30 +2181,34 @@
         <v>1</v>
       </c>
       <c r="U15">
-        <v>121.858</v>
+        <v>93.466999999999999</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>28.390999999999998</v>
       </c>
       <c r="W15">
         <v>159.5</v>
       </c>
       <c r="X15">
+        <f t="shared" si="0"/>
         <v>121.858</v>
       </c>
+      <c r="Y15">
+        <v>121.858</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>500</v>
@@ -2197,30 +2259,34 @@
         <v>1</v>
       </c>
       <c r="U16">
-        <v>44.006399999999999</v>
+        <v>33.753599999999999</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>10.252800000000001</v>
       </c>
       <c r="W16">
         <v>57.6</v>
       </c>
       <c r="X16">
+        <f t="shared" si="0"/>
         <v>44.006399999999999</v>
       </c>
+      <c r="Y16">
+        <v>44.006399999999999</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>500</v>
@@ -2271,30 +2337,34 @@
         <v>1</v>
       </c>
       <c r="U17">
-        <v>36.183039999999998</v>
+        <v>27.752959999999998</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>8.4300800000000002</v>
       </c>
       <c r="W17">
         <v>47.36</v>
       </c>
       <c r="X17">
+        <f t="shared" si="0"/>
         <v>36.183039999999998</v>
       </c>
+      <c r="Y17">
+        <v>36.183039999999998</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>500</v>
@@ -2345,30 +2415,34 @@
         <v>1</v>
       </c>
       <c r="U18">
-        <v>126.06</v>
+        <v>96.69</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>29.369999999999997</v>
       </c>
       <c r="W18">
         <v>165</v>
       </c>
       <c r="X18">
+        <f t="shared" si="0"/>
         <v>126.06</v>
       </c>
+      <c r="Y18">
+        <v>126.06</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>500</v>
@@ -2419,30 +2493,34 @@
         <v>1</v>
       </c>
       <c r="U19">
-        <v>73.343999999999994</v>
+        <v>56.256</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>17.088000000000001</v>
       </c>
       <c r="W19">
         <v>96</v>
       </c>
       <c r="X19">
+        <f t="shared" si="0"/>
         <v>73.343999999999994</v>
       </c>
+      <c r="Y19">
+        <v>73.343999999999994</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -2493,30 +2571,34 @@
         <v>1</v>
       </c>
       <c r="U20">
-        <v>92.444000000000003</v>
+        <v>70.906000000000006</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>21.538</v>
       </c>
       <c r="W20">
         <v>121.00000000000001</v>
       </c>
       <c r="X20">
+        <f t="shared" si="0"/>
         <v>92.444000000000003</v>
       </c>
+      <c r="Y20">
+        <v>92.444000000000003</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>500</v>
@@ -2567,30 +2649,34 @@
         <v>1</v>
       </c>
       <c r="U21">
-        <v>2.7381759999999997</v>
+        <v>2.1002239999999999</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>0.63795199999999985</v>
       </c>
       <c r="W21">
         <v>3.5839999999999996</v>
       </c>
       <c r="X21">
+        <f t="shared" si="0"/>
         <v>2.7381759999999997</v>
       </c>
+      <c r="Y21">
+        <v>2.7381759999999997</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -2641,30 +2727,34 @@
         <v>1</v>
       </c>
       <c r="U22">
+        <v>19.337999999999997</v>
+      </c>
+      <c r="V22">
+        <v>5.8739999999999997</v>
+      </c>
+      <c r="W22">
+        <v>190</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="0"/>
         <v>25.211999999999996</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>33</v>
-      </c>
-      <c r="X22">
+      <c r="Y22">
         <v>25.211999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>500</v>
@@ -2715,30 +2805,34 @@
         <v>1</v>
       </c>
       <c r="U23">
-        <v>7.4321919999999997</v>
+        <v>5.7006079999999999</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1.7315839999999998</v>
       </c>
       <c r="W23">
         <v>9.7279999999999998</v>
       </c>
       <c r="X23">
+        <f t="shared" si="0"/>
         <v>7.4321919999999997</v>
       </c>
+      <c r="Y23">
+        <v>7.4321919999999997</v>
+      </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24">
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24">
         <v>500</v>
@@ -2789,30 +2883,34 @@
         <v>1</v>
       </c>
       <c r="U24">
-        <v>92.444000000000003</v>
+        <v>70.906000000000006</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>21.538</v>
       </c>
       <c r="W24">
         <v>121.00000000000001</v>
       </c>
       <c r="X24">
+        <f t="shared" si="0"/>
         <v>92.444000000000003</v>
       </c>
+      <c r="Y24">
+        <v>92.444000000000003</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25">
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <v>500</v>
@@ -2863,30 +2961,34 @@
         <v>1</v>
       </c>
       <c r="U25">
-        <v>73.343999999999994</v>
+        <v>56.256</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>17.088000000000001</v>
       </c>
       <c r="W25">
         <v>96</v>
       </c>
       <c r="X25">
+        <f t="shared" si="0"/>
         <v>73.343999999999994</v>
       </c>
+      <c r="Y25">
+        <v>73.343999999999994</v>
+      </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26">
         <v>500</v>
@@ -2937,30 +3039,34 @@
         <v>1</v>
       </c>
       <c r="U26">
-        <v>121.858</v>
+        <v>93.466999999999999</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>28.390999999999998</v>
       </c>
       <c r="W26">
         <v>159.5</v>
       </c>
       <c r="X26">
+        <f t="shared" si="0"/>
         <v>121.858</v>
       </c>
+      <c r="Y26">
+        <v>121.858</v>
+      </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>500</v>
@@ -3011,15 +3117,19 @@
         <v>1</v>
       </c>
       <c r="U27">
-        <v>36.183039999999998</v>
+        <v>27.752959999999998</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>8.4300800000000002</v>
       </c>
       <c r="W27">
         <v>47.36</v>
       </c>
       <c r="X27">
+        <f t="shared" si="0"/>
+        <v>36.183039999999998</v>
+      </c>
+      <c r="Y27">
         <v>36.183039999999998</v>
       </c>
     </row>

--- a/Calculs/DataBase_template.xlsx
+++ b/Calculs/DataBase_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3be78f506c0bb2d4/Documents/Citallios/Calculs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F8E57B-582A-4FA5-8F0B-748EB916CBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{34F8E57B-582A-4FA5-8F0B-748EB916CBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66D648AD-1B7B-4F9B-B709-3874F2CF2DFE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15345" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
   <si>
     <t>fck</t>
   </si>
@@ -149,10 +149,7 @@
     <t>File A - 3</t>
   </si>
   <si>
-    <t>m_elu_1</t>
-  </si>
-  <si>
-    <t>m_elu_2</t>
+    <t>m_elu</t>
   </si>
 </sst>
 </file>
@@ -1020,15 +1017,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054D0C79-7D52-471E-B026-05BF71C3F576}">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1099,13 +1096,10 @@
         <v>38</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1176,14 +1170,10 @@
         <v>49.92</v>
       </c>
       <c r="X2">
-        <f>U2+V2</f>
         <v>38.13888</v>
       </c>
-      <c r="Y2">
-        <v>38.13888</v>
-      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1254,14 +1244,10 @@
         <v>137.5</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X27" si="0">U3+V3</f>
         <v>105.04999999999998</v>
       </c>
-      <c r="Y3">
-        <v>105.04999999999998</v>
-      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1332,14 +1318,10 @@
         <v>52.480000000000004</v>
       </c>
       <c r="X4">
-        <f t="shared" si="0"/>
         <v>40.094720000000002</v>
       </c>
-      <c r="Y4">
-        <v>40.094720000000002</v>
-      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1410,14 +1392,10 @@
         <v>99.000000000000014</v>
       </c>
       <c r="X5">
-        <f t="shared" si="0"/>
         <v>75.63600000000001</v>
       </c>
-      <c r="Y5">
-        <v>75.63600000000001</v>
-      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1488,14 +1466,10 @@
         <v>51.2</v>
       </c>
       <c r="X6">
-        <f t="shared" si="0"/>
         <v>39.116799999999998</v>
       </c>
-      <c r="Y6">
-        <v>39.116799999999998</v>
-      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1566,14 +1540,10 @@
         <v>165</v>
       </c>
       <c r="X7">
-        <f t="shared" si="0"/>
         <v>126.06</v>
       </c>
-      <c r="Y7">
-        <v>126.06</v>
-      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1644,14 +1614,10 @@
         <v>89.600000000000009</v>
       </c>
       <c r="X8">
-        <f t="shared" si="0"/>
         <v>68.454400000000007</v>
       </c>
-      <c r="Y8">
-        <v>68.454400000000007</v>
-      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1722,14 +1688,10 @@
         <v>121.00000000000001</v>
       </c>
       <c r="X9">
-        <f t="shared" si="0"/>
         <v>92.444000000000003</v>
       </c>
-      <c r="Y9">
-        <v>92.444000000000003</v>
-      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1800,14 +1762,10 @@
         <v>9.984</v>
       </c>
       <c r="X10">
-        <f t="shared" si="0"/>
         <v>7.6277759999999999</v>
       </c>
-      <c r="Y10">
-        <v>7.6277759999999999</v>
-      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1878,14 +1836,10 @@
         <v>33</v>
       </c>
       <c r="X11">
-        <f t="shared" si="0"/>
         <v>25.211999999999996</v>
       </c>
-      <c r="Y11">
-        <v>25.211999999999996</v>
-      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1956,14 +1910,10 @@
         <v>11.52</v>
       </c>
       <c r="X12">
-        <f t="shared" si="0"/>
         <v>8.8012799999999984</v>
       </c>
-      <c r="Y12">
-        <v>8.8012799999999984</v>
-      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -2034,14 +1984,10 @@
         <v>121.00000000000001</v>
       </c>
       <c r="X13">
-        <f t="shared" si="0"/>
         <v>92.444000000000003</v>
       </c>
-      <c r="Y13">
-        <v>92.444000000000003</v>
-      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -2112,14 +2058,10 @@
         <v>72.960000000000008</v>
       </c>
       <c r="X14">
-        <f t="shared" si="0"/>
         <v>55.741440000000004</v>
       </c>
-      <c r="Y14">
-        <v>55.741440000000004</v>
-      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2190,14 +2132,10 @@
         <v>159.5</v>
       </c>
       <c r="X15">
-        <f t="shared" si="0"/>
         <v>121.858</v>
       </c>
-      <c r="Y15">
-        <v>121.858</v>
-      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -2268,14 +2206,10 @@
         <v>57.6</v>
       </c>
       <c r="X16">
-        <f t="shared" si="0"/>
         <v>44.006399999999999</v>
       </c>
-      <c r="Y16">
-        <v>44.006399999999999</v>
-      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -2346,14 +2280,10 @@
         <v>47.36</v>
       </c>
       <c r="X17">
-        <f t="shared" si="0"/>
         <v>36.183039999999998</v>
       </c>
-      <c r="Y17">
-        <v>36.183039999999998</v>
-      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -2424,14 +2354,10 @@
         <v>165</v>
       </c>
       <c r="X18">
-        <f t="shared" si="0"/>
         <v>126.06</v>
       </c>
-      <c r="Y18">
-        <v>126.06</v>
-      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2502,14 +2428,10 @@
         <v>96</v>
       </c>
       <c r="X19">
-        <f t="shared" si="0"/>
         <v>73.343999999999994</v>
       </c>
-      <c r="Y19">
-        <v>73.343999999999994</v>
-      </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2580,14 +2502,10 @@
         <v>121.00000000000001</v>
       </c>
       <c r="X20">
-        <f t="shared" si="0"/>
         <v>92.444000000000003</v>
       </c>
-      <c r="Y20">
-        <v>92.444000000000003</v>
-      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -2658,14 +2576,10 @@
         <v>3.5839999999999996</v>
       </c>
       <c r="X21">
-        <f t="shared" si="0"/>
         <v>2.7381759999999997</v>
       </c>
-      <c r="Y21">
-        <v>2.7381759999999997</v>
-      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2736,14 +2650,10 @@
         <v>190</v>
       </c>
       <c r="X22">
-        <f t="shared" si="0"/>
         <v>25.211999999999996</v>
       </c>
-      <c r="Y22">
-        <v>25.211999999999996</v>
-      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2814,14 +2724,10 @@
         <v>9.7279999999999998</v>
       </c>
       <c r="X23">
-        <f t="shared" si="0"/>
         <v>7.4321919999999997</v>
       </c>
-      <c r="Y23">
-        <v>7.4321919999999997</v>
-      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -2892,14 +2798,10 @@
         <v>121.00000000000001</v>
       </c>
       <c r="X24">
-        <f t="shared" si="0"/>
         <v>92.444000000000003</v>
       </c>
-      <c r="Y24">
-        <v>92.444000000000003</v>
-      </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -2970,14 +2872,10 @@
         <v>96</v>
       </c>
       <c r="X25">
-        <f t="shared" si="0"/>
         <v>73.343999999999994</v>
       </c>
-      <c r="Y25">
-        <v>73.343999999999994</v>
-      </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3048,14 +2946,10 @@
         <v>159.5</v>
       </c>
       <c r="X26">
-        <f t="shared" si="0"/>
         <v>121.858</v>
       </c>
-      <c r="Y26">
-        <v>121.858</v>
-      </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -3126,10 +3020,6 @@
         <v>47.36</v>
       </c>
       <c r="X27">
-        <f t="shared" si="0"/>
-        <v>36.183039999999998</v>
-      </c>
-      <c r="Y27">
         <v>36.183039999999998</v>
       </c>
     </row>
